--- a/DATA_goal/Junction_Flooding_202.xlsx
+++ b/DATA_goal/Junction_Flooding_202.xlsx
@@ -447,31 +447,31 @@
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -655,103 +655,103 @@
         <v>41634.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.42</v>
+        <v>0.44</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.02</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.5</v>
+        <v>1.05</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.16</v>
+        <v>0.92</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.17</v>
+        <v>0.42</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.51</v>
+        <v>0.85</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.07</v>
+        <v>0.21</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.8</v>
+        <v>0.48</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.71</v>
+        <v>0.67</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>3.69</v>
+        <v>0.37</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.36</v>
+        <v>0.34</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.85</v>
+        <v>0.59</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.85</v>
+        <v>0.29</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AD2" s="4" t="n">
         <v>0.63</v>
       </c>
-      <c r="T2" s="4" t="n">
-        <v>53.49</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>6.28</v>
-      </c>
       <c r="AE2" s="4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>6.75</v>
+        <v>0.68</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>1.94</v>
+        <v>0.19</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>4.32</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41634.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>23.37</v>
+        <v>2.34</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>18.19</v>
+        <v>1.82</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>51.04</v>
+        <v>5.1</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>42.46</v>
+        <v>4.25</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18.62</v>
+        <v>1.86</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>65.31</v>
+        <v>6.53</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>28.42</v>
+        <v>2.84</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.65</v>
+        <v>1.27</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>19.52</v>
+        <v>1.95</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>21.56</v>
+        <v>2.16</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>21.41</v>
+        <v>2.14</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.11</v>
+        <v>1.81</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>26.53</v>
+        <v>2.65</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.21</v>
+        <v>1.52</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>273.85</v>
+        <v>27.38</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>51.47</v>
+        <v>5.15</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>16.53</v>
+        <v>1.65</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>34.56</v>
+        <v>3.46</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>18.74</v>
+        <v>1.87</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.42</v>
+        <v>0.24</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>34.58</v>
+        <v>3.46</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>14.9</v>
+        <v>1.49</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>14.26</v>
+        <v>1.43</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.15</v>
+        <v>1.52</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>22.4</v>
+        <v>2.24</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>59.17</v>
+        <v>5.92</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.11</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41634.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17.54</v>
+        <v>1.75</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.55</v>
+        <v>1.35</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>38.21</v>
+        <v>3.82</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>31.78</v>
+        <v>3.18</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.92</v>
+        <v>1.39</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>55.19</v>
+        <v>5.52</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>21.26</v>
+        <v>2.13</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.58</v>
+        <v>1.46</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.01</v>
+        <v>1.6</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>16.07</v>
+        <v>1.61</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.57</v>
+        <v>1.36</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>19.85</v>
+        <v>1.99</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.41</v>
+        <v>1.14</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>203.04</v>
+        <v>20.3</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>38.61</v>
+        <v>3.86</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.4</v>
+        <v>1.24</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>25.99</v>
+        <v>2.6</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.99</v>
+        <v>1.4</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.81</v>
+        <v>0.18</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>27.66</v>
+        <v>2.77</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.14</v>
+        <v>1.11</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.57</v>
+        <v>1.06</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.39</v>
+        <v>1.14</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>16.69</v>
+        <v>1.67</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>50.1</v>
+        <v>5.01</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.36</v>
+        <v>0.74</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.79</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41634.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.79</v>
+        <v>1.28</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>27.83</v>
+        <v>2.78</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.14</v>
+        <v>2.31</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.14</v>
+        <v>1.01</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>41.17</v>
+        <v>4.12</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.47</v>
+        <v>1.55</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.96</v>
+        <v>0.7</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.62</v>
+        <v>1.06</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.65</v>
+        <v>1.17</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.880000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.46</v>
+        <v>1.45</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.32</v>
+        <v>0.83</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>145.87</v>
+        <v>14.59</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.12</v>
+        <v>2.81</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>18.94</v>
+        <v>1.89</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.2</v>
+        <v>1.02</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.4</v>
+        <v>2.04</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.71</v>
+        <v>0.77</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.300000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.16</v>
+        <v>1.22</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>37.3</v>
+        <v>3.73</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.39</v>
+        <v>0.54</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.49</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41634.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>14.74</v>
+        <v>1.47</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>11.26</v>
+        <v>1.13</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>32.05</v>
+        <v>3.2</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>26.61</v>
+        <v>2.66</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>11.65</v>
+        <v>1.16</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>45.19</v>
+        <v>4.52</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>17.82</v>
+        <v>1.78</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>8.02</v>
+        <v>0.8</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>12.15</v>
+        <v>1.22</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>13.24</v>
+        <v>1.32</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>13.52</v>
+        <v>1.35</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.59</v>
+        <v>0.36</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>11.42</v>
+        <v>1.14</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>16.59</v>
+        <v>1.66</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>9.57</v>
+        <v>0.96</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>168.79</v>
+        <v>16.88</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>32.27</v>
+        <v>3.23</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>10.47</v>
+        <v>1.05</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>21.79</v>
+        <v>2.18</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>11.65</v>
+        <v>1.16</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>22.46</v>
+        <v>2.25</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>9.34</v>
+        <v>0.93</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>9.6</v>
+        <v>0.96</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>13.85</v>
+        <v>1.39</v>
       </c>
       <c r="AE6" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>40.85</v>
+        <v>4.09</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>6.17</v>
+        <v>0.62</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>13.25</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41634.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>13.89</v>
+        <v>1.39</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>10.59</v>
+        <v>1.06</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>30.19</v>
+        <v>3.02</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>25.05</v>
+        <v>2.51</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>10.97</v>
+        <v>1.1</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>43.18</v>
+        <v>4.32</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>16.79</v>
+        <v>1.68</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>7.56</v>
+        <v>0.76</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>11.43</v>
+        <v>1.14</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>12.42</v>
+        <v>1.24</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>12.75</v>
+        <v>1.27</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.39</v>
+        <v>0.34</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>10.77</v>
+        <v>1.08</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>158.52</v>
+        <v>15.85</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>30.41</v>
+        <v>3.04</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>9.880000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>20.55</v>
+        <v>2.06</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>10.96</v>
+        <v>1.1</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>21.34</v>
+        <v>2.13</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>9.06</v>
+        <v>0.91</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>13.01</v>
+        <v>1.3</v>
       </c>
       <c r="AE7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>39.11</v>
+        <v>3.91</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>5.81</v>
+        <v>0.58</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41634.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>1.69</v>
+        <v>0.17</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>4.5</v>
+        <v>0.45</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>3.8</v>
+        <v>0.38</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>2.49</v>
+        <v>0.25</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>1.81</v>
+        <v>0.18</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>2.06</v>
+        <v>0.21</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>1.85</v>
+        <v>0.19</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>2.54</v>
+        <v>0.25</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>1.36</v>
+        <v>0.14</v>
       </c>
       <c r="R8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AB8" s="4" t="n">
         <v>0.15</v>
       </c>
-      <c r="T8" s="4" t="n">
-        <v>17.86</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.48</v>
-      </c>
       <c r="AC8" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
       <c r="AE8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>11.75</v>
+        <v>1.18</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41634.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>15.92</v>
+        <v>1.59</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>12.07</v>
+        <v>1.21</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>34.61</v>
+        <v>3.46</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>28.69</v>
+        <v>2.87</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>12.55</v>
+        <v>1.26</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>44.5</v>
+        <v>4.45</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>19.25</v>
+        <v>1.92</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>8.65</v>
+        <v>0.86</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>13.04</v>
+        <v>1.3</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>14.11</v>
+        <v>1.41</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>14.64</v>
+        <v>1.46</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.93</v>
+        <v>0.39</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>12.39</v>
+        <v>1.24</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>17.83</v>
+        <v>1.78</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>10.33</v>
+        <v>1.03</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>182.55</v>
+        <v>18.26</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>34.66</v>
+        <v>3.47</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>11.39</v>
+        <v>1.14</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>23.45</v>
+        <v>2.35</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>12.48</v>
+        <v>1.25</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.64</v>
+        <v>0.16</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>22.4</v>
+        <v>2.24</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>10.11</v>
+        <v>1.01</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>9.18</v>
+        <v>0.92</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>10.42</v>
+        <v>1.04</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>14.81</v>
+        <v>1.48</v>
       </c>
       <c r="AE9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>39.95</v>
+        <v>3.99</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>6.63</v>
+        <v>0.66</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>14.33</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41634.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>23.04</v>
+        <v>2.3</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>17.4</v>
+        <v>1.74</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>50.09</v>
+        <v>5.01</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>41.47</v>
+        <v>4.15</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>18.15</v>
+        <v>1.81</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>69.05</v>
+        <v>6.9</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>27.86</v>
+        <v>2.79</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>12.54</v>
+        <v>1.25</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>18.81</v>
+        <v>1.88</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>20.3</v>
+        <v>2.03</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>21.22</v>
+        <v>2.12</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.72</v>
+        <v>0.57</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>17.96</v>
+        <v>1.8</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>25.83</v>
+        <v>2.58</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>14.94</v>
+        <v>1.49</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>267.29</v>
+        <v>26.73</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>50.37</v>
+        <v>5.04</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>16.54</v>
+        <v>1.65</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>34.11</v>
+        <v>3.41</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>18.02</v>
+        <v>1.8</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>34.23</v>
+        <v>3.42</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>14.65</v>
+        <v>1.47</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>13.13</v>
+        <v>1.31</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>15.11</v>
+        <v>1.51</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>21.31</v>
+        <v>2.13</v>
       </c>
       <c r="AE10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>62.68</v>
+        <v>6.27</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>9.56</v>
+        <v>0.96</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>20.76</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_202.xlsx
+++ b/DATA_goal/Junction_Flooding_202.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,20 +443,20 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
@@ -465,7 +465,7 @@
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
@@ -475,7 +475,7 @@
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41634.34027777778</v>
+        <v>44883.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.44</v>
+        <v>1.83</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5</v>
+        <v>1.22</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.05</v>
+        <v>3.88</v>
       </c>
       <c r="F2" s="4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="J2" s="4" t="n">
         <v>0.92</v>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.21</v>
-      </c>
       <c r="K2" s="4" t="n">
-        <v>0.48</v>
+        <v>1.38</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.67</v>
+        <v>1.53</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.37</v>
+        <v>1.59</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="O2" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="R2" s="4" t="n">
         <v>0.34</v>
       </c>
-      <c r="P2" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>5.35</v>
+        <v>21.01</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.07</v>
+        <v>3.97</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.28</v>
+        <v>1.32</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.62</v>
+        <v>2.6</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.47</v>
+        <v>1.32</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.31</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.82</v>
+        <v>2.29</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.31</v>
+        <v>1.16</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.24</v>
+        <v>1.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.63</v>
+        <v>1.58</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.68</v>
+        <v>3.99</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.72</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.43</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41634.34722222222</v>
+        <v>44883.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.34</v>
+        <v>2.45</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.1</v>
+        <v>5.31</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.25</v>
+        <v>4.32</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.53</v>
+        <v>7.29</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.84</v>
+        <v>2.97</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.16</v>
+        <v>2.13</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.14</v>
+        <v>2.23</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>27.38</v>
+        <v>28.45</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.15</v>
+        <v>5.36</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.46</v>
+        <v>3.58</v>
       </c>
       <c r="X3" s="4" t="n">
         <v>1.87</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.46</v>
+        <v>3.58</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.92</v>
+        <v>6.63</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.11</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41634.35416666666</v>
+        <v>44883.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD4" s="4" t="n">
         <v>1.75</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="D4" s="4" t="n">
+      <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>5.01</v>
+        <v>5.47</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.58</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41634.36111111111</v>
+        <v>44883.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M5" s="4" t="n">
         <v>1.28</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="D5" s="4" t="n">
+      <c r="N5" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.06</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="G5" s="4" t="n">
+      <c r="T5" s="4" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V5" s="4" t="n">
         <v>1.01</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>14.59</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.9</v>
-      </c>
       <c r="W5" s="4" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.04</v>
+        <v>2.13</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.73</v>
+        <v>4.04</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41634.36805555555</v>
+        <v>44883.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.47</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.13</v>
+        <v>6.58</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.74</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.2</v>
+        <v>19.83</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.66</v>
+        <v>16.06</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.16</v>
+        <v>7.18</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>4.52</v>
+        <v>30.1</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.78</v>
+        <v>11.05</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.8</v>
+        <v>4.85</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.22</v>
+        <v>7.08</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.32</v>
+        <v>7.96</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.35</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.36</v>
+        <v>2.3</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.14</v>
+        <v>7.14</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.66</v>
+        <v>10.12</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.96</v>
+        <v>6.14</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.01</v>
+        <v>0.61</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.45</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>16.88</v>
+        <v>101.41</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.23</v>
+        <v>20.06</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.05</v>
+        <v>6.59</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.18</v>
+        <v>13.36</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.16</v>
+        <v>6.97</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.15</v>
+        <v>1.19</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.25</v>
+        <v>14.26</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.93</v>
+        <v>5.82</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.87</v>
+        <v>5.23</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.96</v>
+        <v>6.14</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.39</v>
+        <v>8.32</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>4.09</v>
+        <v>27.38</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.62</v>
+        <v>3.65</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41634.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>15.85</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41634.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41634.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>18.26</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41634.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>26.73</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>2.08</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41634.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>14.11</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>30.66</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>45.78</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>17.05</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>15.84</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>160.86</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>30.92</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>20.93</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>22.17</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>41.62</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>12.69</v>
+        <v>8.24</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_202.xlsx
+++ b/DATA_goal/Junction_Flooding_202.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44883.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.26</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.15</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.02</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.88</v>
+        <v>38.83</v>
       </c>
       <c r="F2" s="4" t="n">
+        <v>30.97</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>45.02</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>26.04</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>3.1</v>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>21.01</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.31</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>2.29</v>
+        <v>22.94</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.65</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.06</v>
+        <v>10.6</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.44</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.58</v>
+        <v>15.8</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.99</v>
+        <v>39.91</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.65</v>
+        <v>16.49</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44883.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.45</v>
+        <v>24.5</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.77</v>
+        <v>17.69</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.31</v>
+        <v>53.11</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.32</v>
+        <v>43.21</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.93</v>
+        <v>19.28</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>7.29</v>
+        <v>72.95</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.97</v>
+        <v>29.67</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.3</v>
+        <v>12.99</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.92</v>
+        <v>19.21</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.13</v>
+        <v>21.26</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.23</v>
+        <v>22.32</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.92</v>
+        <v>19.17</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.72</v>
+        <v>27.15</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.63</v>
+        <v>16.31</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>28.45</v>
+        <v>284.54</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.36</v>
+        <v>53.62</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.58</v>
+        <v>35.81</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.87</v>
+        <v>18.66</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.14</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.58</v>
+        <v>35.81</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.56</v>
+        <v>15.63</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.4</v>
+        <v>13.99</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.64</v>
+        <v>16.43</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.22</v>
+        <v>22.2</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.63</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.99</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.21</v>
+        <v>22.13</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44883.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.92</v>
+        <v>19.22</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.4</v>
+        <v>13.97</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.17</v>
+        <v>41.72</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.4</v>
+        <v>33.98</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.51</v>
+        <v>15.12</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.02</v>
+        <v>60.18</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.33</v>
+        <v>23.27</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.24</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.51</v>
+        <v>15.1</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.73</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.58</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.83</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.5</v>
+        <v>15.04</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.13</v>
+        <v>21.33</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.79</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>22.16</v>
+        <v>221.59</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.21</v>
+        <v>42.1</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.82</v>
+        <v>28.15</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.7</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.4</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.89</v>
+        <v>28.95</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.26</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.1</v>
+        <v>10.95</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.86</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.75</v>
+        <v>17.5</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.47</v>
+        <v>54.65</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.75</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44883.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.93</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.12</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.03</v>
+        <v>30.26</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.46</v>
+        <v>24.61</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.1</v>
+        <v>10.96</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.45</v>
+        <v>44.51</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.69</v>
+        <v>16.87</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.42</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.91</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.14</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.76</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.46</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.86</v>
+        <v>158.64</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.05</v>
+        <v>30.55</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.06</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.04</v>
+        <v>20.41</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.66</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.75</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.13</v>
+        <v>21.26</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.8</v>
+        <v>7.95</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.34</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.27</v>
+        <v>12.7</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.04</v>
+        <v>40.42</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_202.xlsx
+++ b/DATA_goal/Junction_Flooding_202.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44883.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>18.26</v>
+        <v>18.256</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.15</v>
+        <v>12.153</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.02</v>
+        <v>4.015</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>38.83</v>
+        <v>38.832</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>30.97</v>
+        <v>30.967</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>14.37</v>
+        <v>14.367</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>45.02</v>
+        <v>45.024</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>22.11</v>
+        <v>22.106</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.17</v>
+        <v>9.170999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>13.75</v>
+        <v>13.751</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>15.28</v>
+        <v>15.281</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>15.89</v>
+        <v>15.885</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.59</v>
+        <v>4.586</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>14.29</v>
+        <v>14.287</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>19.9</v>
+        <v>19.896</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.29</v>
+        <v>12.285</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.42</v>
+        <v>3.423</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.238</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>210.1</v>
+        <v>210.098</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>39.7</v>
+        <v>39.697</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.19</v>
+        <v>13.187</v>
       </c>
       <c r="W2" s="4" t="n">
         <v>26.04</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>13.22</v>
+        <v>13.224</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.1</v>
+        <v>3.103</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>22.94</v>
+        <v>22.935</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.65</v>
+        <v>11.648</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>10.6</v>
+        <v>10.595</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.44</v>
+        <v>12.441</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>15.8</v>
+        <v>15.796</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.45</v>
+        <v>3.454</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>39.91</v>
+        <v>39.912</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.2</v>
+        <v>7.199</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>16.49</v>
+        <v>16.486</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44883.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>24.5</v>
+        <v>24.502</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.69</v>
+        <v>17.688</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2.08</v>
+        <v>2.081</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>53.11</v>
+        <v>53.105</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>43.21</v>
+        <v>43.212</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>19.28</v>
+        <v>19.282</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>72.95</v>
+        <v>72.946</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>29.67</v>
+        <v>29.668</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>12.99</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>19.21</v>
+        <v>19.212</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>21.26</v>
+        <v>21.263</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>22.32</v>
+        <v>22.318</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>6.16</v>
+        <v>6.159</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>19.17</v>
+        <v>19.174</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>27.15</v>
+        <v>27.154</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>16.31</v>
+        <v>16.313</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.61</v>
+        <v>1.611</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.31</v>
+        <v>1.314</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>284.54</v>
+        <v>284.542</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>53.62</v>
+        <v>53.615</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17.7</v>
+        <v>17.698</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>35.81</v>
+        <v>35.807</v>
       </c>
       <c r="X3" s="4" t="n">
         <v>18.66</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>3.14</v>
+        <v>3.142</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>35.81</v>
+        <v>35.814</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>15.63</v>
+        <v>15.633</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.99</v>
+        <v>13.992</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>16.43</v>
+        <v>16.432</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>22.2</v>
+        <v>22.197</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.26</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>66.31999999999999</v>
+        <v>66.322</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.880000000000001</v>
+        <v>9.877000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>22.13</v>
+        <v>22.127</v>
       </c>
     </row>
     <row r="4">
@@ -863,28 +863,28 @@
         <v>44883.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>19.22</v>
+        <v>19.217</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.97</v>
+        <v>13.971</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.42</v>
+        <v>1.415</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>41.72</v>
+        <v>41.718</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>33.98</v>
+        <v>33.983</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15.12</v>
+        <v>15.123</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>60.18</v>
+        <v>60.177</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>23.27</v>
+        <v>23.269</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>10.24</v>
@@ -893,73 +893,73 @@
         <v>15.1</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.73</v>
+        <v>16.733</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>17.58</v>
+        <v>17.583</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.83</v>
+        <v>4.831</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>15.04</v>
+        <v>15.038</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>21.33</v>
+        <v>21.331</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.79</v>
+        <v>12.792</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.07</v>
+        <v>1.068</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.907</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>221.59</v>
+        <v>221.593</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>42.1</v>
+        <v>42.101</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.88</v>
+        <v>13.881</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>28.15</v>
+        <v>28.151</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.7</v>
+        <v>14.703</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.4</v>
+        <v>2.396</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>28.95</v>
+        <v>28.949</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.26</v>
+        <v>12.261</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.95</v>
+        <v>10.955</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.86</v>
+        <v>12.864</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.5</v>
+        <v>17.496</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
         <v>54.65</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.75</v>
+        <v>7.754</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>17.35</v>
+        <v>17.355</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>12.58</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44883.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>19.83</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>16.06</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>101.41</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>20.06</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.36</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.97</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>27.38</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.24</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_202.xlsx
+++ b/DATA_goal/Junction_Flooding_202.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,73 +967,73 @@
         <v>44883.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.93</v>
+        <v>13.932</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.12</v>
+        <v>10.122</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.02</v>
+        <v>1.022</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>30.26</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>24.61</v>
+        <v>24.614</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.96</v>
+        <v>10.965</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>44.51</v>
+        <v>44.511</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>16.87</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.42</v>
+        <v>7.423</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.91</v>
+        <v>10.912</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.14</v>
+        <v>12.145</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.76</v>
+        <v>12.763</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.5</v>
+        <v>3.503</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.9</v>
+        <v>10.903</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.46</v>
+        <v>15.462</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>9.301</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.788</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.65</v>
+        <v>0.645</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>158.64</v>
+        <v>158.638</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>30.55</v>
+        <v>30.548</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.06</v>
+        <v>10.064</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>20.41</v>
+        <v>20.407</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.66</v>
+        <v>10.662</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.75</v>
@@ -1042,28 +1042,132 @@
         <v>21.26</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.95</v>
+        <v>7.951</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.34</v>
+        <v>9.335000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.7</v>
+        <v>12.703</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.556</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>40.42</v>
+        <v>40.421</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.61</v>
+        <v>5.609</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.58</v>
+        <v>12.582</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44883.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>19.83</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>101.41</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>13.36</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>27.38</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>8.24</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_202.xlsx
+++ b/DATA_goal/Junction_Flooding_202.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,73 +967,73 @@
         <v>44883.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.932</v>
+        <v>13.93</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.122</v>
+        <v>10.12</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.022</v>
+        <v>1.02</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>30.26</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>24.614</v>
+        <v>24.61</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.965</v>
+        <v>10.96</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>44.511</v>
+        <v>44.51</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>16.87</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.423</v>
+        <v>7.42</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.912</v>
+        <v>10.91</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.145</v>
+        <v>12.14</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.763</v>
+        <v>12.76</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.503</v>
+        <v>3.5</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.903</v>
+        <v>10.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.462</v>
+        <v>15.46</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.301</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.788</v>
+        <v>0.79</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.645</v>
+        <v>0.65</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>158.638</v>
+        <v>158.64</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>30.548</v>
+        <v>30.55</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.064</v>
+        <v>10.06</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>20.407</v>
+        <v>20.41</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.662</v>
+        <v>10.66</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.75</v>
@@ -1042,132 +1042,28 @@
         <v>21.26</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.888999999999999</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.951</v>
+        <v>7.95</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.335000000000001</v>
+        <v>9.34</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.703</v>
+        <v>12.7</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.556</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>40.421</v>
+        <v>40.42</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.609</v>
+        <v>5.61</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.582</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44883.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>19.83</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>16.06</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>101.41</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>20.06</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.36</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.97</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>27.38</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.24</v>
+        <v>12.58</v>
       </c>
     </row>
   </sheetData>
